--- a/QCM_Sicharp/PlanningFinal.xlsx
+++ b/QCM_Sicharp/PlanningFinal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>7h30</t>
   </si>
@@ -84,15 +84,6 @@
     <t>Processus de suppression de mots-clés</t>
   </si>
   <si>
-    <t>Processus de création de réponses</t>
-  </si>
-  <si>
-    <t>Processus de modification de reponses</t>
-  </si>
-  <si>
-    <t>Processus de suppression de reponses</t>
-  </si>
-  <si>
     <t>Processus d'exportation au format Latex</t>
   </si>
   <si>
@@ -103,6 +94,9 @@
   </si>
   <si>
     <t>Création de la présentation</t>
+  </si>
+  <si>
+    <t>Maquettes</t>
   </si>
 </sst>
 </file>
@@ -119,6 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,13 +134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,16 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,79 +483,78 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" activeCellId="1" sqref="H5:I5 E5:F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>42892</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,7 +617,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -697,24 +690,24 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,7 +719,7 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,16 +771,16 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -872,7 +865,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +925,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -947,10 +940,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,23 +993,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1025,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1066,91 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1090,84 +1162,6 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1223,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>

--- a/QCM_Sicharp/PlanningFinal.xlsx
+++ b/QCM_Sicharp/PlanningFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="06.06.2017" sheetId="2" r:id="rId1"/>
@@ -119,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +172,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +647,7 @@
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,22 +699,22 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -719,7 +726,7 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,16 +778,16 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,7 +950,7 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+      <selection activeCell="H4" activeCellId="1" sqref="B4:F4 H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,16 +1002,16 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,6 +1021,90 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:L4"/>
@@ -1026,7 +1117,7 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>42898</v>
+        <v>42899</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,114 +1157,30 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,16 +1232,16 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QCM_Sicharp/PlanningFinal.xlsx
+++ b/QCM_Sicharp/PlanningFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="06.06.2017" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
   <si>
     <t>7h30</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Processus de création / modification / suppression d'une question</t>
   </si>
   <si>
-    <t>Processus de création / modification de mots-clés</t>
-  </si>
-  <si>
-    <t>Processus de suppression de mots-clés</t>
-  </si>
-  <si>
     <t>Processus d'exportation au format Latex</t>
   </si>
   <si>
@@ -96,14 +90,53 @@
     <t>Création de la présentation</t>
   </si>
   <si>
-    <t>Maquettes</t>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>A faire</t>
+  </si>
+  <si>
+    <t>TellDontAsk</t>
+  </si>
+  <si>
+    <t>Documentation initiale</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>Création des objets</t>
+  </si>
+  <si>
+    <t>Changement de planning !</t>
+  </si>
+  <si>
+    <t>Modèle et controlleur</t>
+  </si>
+  <si>
+    <t>Un peu de vue</t>
+  </si>
+  <si>
+    <t>Retard</t>
+  </si>
+  <si>
+    <t>Latex</t>
+  </si>
+  <si>
+    <t>Changemenet des vues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +151,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,7 +197,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -173,6 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,6 +623,36 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,7 +665,7 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,18 +715,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:L5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,24 +788,54 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,15 +844,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -778,28 +900,111 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,18 +1054,54 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -869,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +1163,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" activeCellId="1" sqref="B4:F4 H4:L4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,18 +1236,33 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,7 +1324,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1088,14 +1339,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,7 +1358,7 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,18 +1408,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:L4"/>
     </sheetView>
   </sheetViews>
@@ -1230,18 +1481,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QCM_Sicharp/PlanningFinal.xlsx
+++ b/QCM_Sicharp/PlanningFinal.xlsx
@@ -129,7 +129,7 @@
     <t>Latex</t>
   </si>
   <si>
-    <t>Changemenet des vues</t>
+    <t>Changement des vues</t>
   </si>
 </sst>
 </file>
@@ -844,10 +844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,77 +919,77 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="6"/>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/QCM_Sicharp/PlanningFinal.xlsx
+++ b/QCM_Sicharp/PlanningFinal.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Documents\GitHub\TPI_QCM\QCM_Sicharp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
-    <sheet name="06.06.2017" sheetId="2" r:id="rId1"/>
-    <sheet name="07.06.2017" sheetId="3" r:id="rId2"/>
-    <sheet name="08.06.2017" sheetId="4" r:id="rId3"/>
-    <sheet name="09.06.2017" sheetId="5" r:id="rId4"/>
-    <sheet name="12.06.2017" sheetId="8" r:id="rId5"/>
-    <sheet name="13.06.2017" sheetId="9" r:id="rId6"/>
-    <sheet name="14.06.2017" sheetId="10" r:id="rId7"/>
-    <sheet name="15.06.2017" sheetId="11" r:id="rId8"/>
-    <sheet name="16.06.2017" sheetId="12" r:id="rId9"/>
-    <sheet name="19.06.2017" sheetId="15" r:id="rId10"/>
+    <sheet name="GROUPEMENT" sheetId="16" r:id="rId1"/>
+    <sheet name="06.06.2017" sheetId="2" r:id="rId2"/>
+    <sheet name="07.06.2017" sheetId="3" r:id="rId3"/>
+    <sheet name="08.06.2017" sheetId="4" r:id="rId4"/>
+    <sheet name="09.06.2017" sheetId="5" r:id="rId5"/>
+    <sheet name="12.06.2017" sheetId="8" r:id="rId6"/>
+    <sheet name="13.06.2017" sheetId="9" r:id="rId7"/>
+    <sheet name="14.06.2017" sheetId="10" r:id="rId8"/>
+    <sheet name="15.06.2017" sheetId="11" r:id="rId9"/>
+    <sheet name="16.06.2017" sheetId="12" r:id="rId10"/>
+    <sheet name="19.06.2017" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="34">
   <si>
     <t>7h30</t>
   </si>
@@ -135,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,111 +554,667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L14"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>42892</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42892</v>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>42893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>42898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,7 +1227,80 @@
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +1373,121 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A2" sqref="A2:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,12 +1591,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="A10:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,12 +1748,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,12 +1857,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,12 +1930,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,12 +2018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:L5"/>
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,12 +2102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,77 +2173,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>42900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>